--- a/Data/Bank_churn/Images/SVC_ValidationCurve_kernel.xlsx
+++ b/Data/Bank_churn/Images/SVC_ValidationCurve_kernel.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C2" t="n">
         <v>0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>518.9</v>
+        <v>15.48</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C3" t="n">
         <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>518.15</v>
+        <v>13.11</v>
       </c>
       <c r="E3" t="n">
-        <v>81.51000000000001</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C4" t="n">
         <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>520.29</v>
+        <v>44.48</v>
       </c>
       <c r="E4" t="n">
-        <v>18.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C5" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>507.15</v>
+        <v>5.19</v>
       </c>
       <c r="E5" t="n">
-        <v>18.35</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bank_churn/Images/SVC_ValidationCurve_kernel.xlsx
+++ b/Data/Bank_churn/Images/SVC_ValidationCurve_kernel.xlsx
@@ -473,10 +473,10 @@
         <v>0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>15.48</v>
+        <v>17.45</v>
       </c>
       <c r="E2" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -492,10 +492,10 @@
         <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>13.11</v>
+        <v>14.54</v>
       </c>
       <c r="E3" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +511,10 @@
         <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>44.48</v>
+        <v>56.49</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>5.19</v>
+        <v>6.91</v>
       </c>
       <c r="E5" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
